--- a/test/acceptance/data/RedPencilUsingMacros/RedPencilSpecification.xlsx
+++ b/test/acceptance/data/RedPencilUsingMacros/RedPencilSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="547" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="372" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SetUp" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
     <definedName function="false" hidden="false" name="maxReductionOffer" vbProcedure="false">ReductionLimitsWithSpecialOffer!$F$5</definedName>
     <definedName function="false" hidden="false" name="minimumReduction" vbProcedure="false">'#ReductionLimit'!$B$3</definedName>
     <definedName function="false" hidden="false" name="reductionDate" vbProcedure="false">'#ReductionLimit'!$B$15</definedName>
-    <definedName function="false" hidden="false" name="saveReduction" vbProcedure="false">#ref!!$b$6</definedName>
+    <definedName function="false" hidden="false" name="saveReduction" vbProcedure="false">#ref!!$B$6</definedName>
     <definedName function="false" hidden="false" name="stablePhase" vbProcedure="false">'#ReductionLimit'!$B$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -223,11 +223,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -264,6 +264,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -287,14 +293,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF669999"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FF669999"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -305,14 +311,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -320,174 +326,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="2" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="3" fontId="4" numFmtId="166">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="21">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="166" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="24">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="166" xfId="25">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="7" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="23">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="19">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in DecisionTableHeader" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Documentation" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DecisionTable_Header" xfId="22"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DecisionTable" xfId="23"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in DecisionTableContent" xfId="24"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in DecisionTable_Date" xfId="25"/>
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="FitTableCell" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="FitTableHeader" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -557,10 +515,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -568,48 +526,49 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -624,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A9" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E21" activeCellId="0" pane="topLeft" sqref="E21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -637,504 +596,504 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9081632653061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3112244897959"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="3" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="41.4" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21.05" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="29.6" outlineLevel="0" r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="29.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.25" outlineLevel="0" r="6">
-      <c r="A6" s="9" t="s">
+    <row r="6" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.3" outlineLevel="0" r="8">
-      <c r="A8" s="10" t="s">
+    <row r="8" customFormat="false" ht="26.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28.25" outlineLevel="0" r="10">
-      <c r="A10" s="10" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="n">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="n">
         <f aca="false">stablePhase + 10</f>
         <v>40</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.3" outlineLevel="0" r="12">
-      <c r="A12" s="11" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="49.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.75" outlineLevel="0" r="13">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="14">
-      <c r="A14" s="16" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="12" t="n">
         <f aca="false">reductionDate-C10</f>
         <v>41235</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="15">
-      <c r="A15" s="16" t="s">
+    <row r="15" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="12" t="n">
         <v>41275</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="16">
-      <c r="A16" s="16" t="s">
+    <row r="16" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33.55" outlineLevel="0" r="18">
-      <c r="A18" s="11" t="s">
+      <c r="D16" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.6" outlineLevel="0" r="19">
-      <c r="A19" s="19" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="40.75" outlineLevel="0" r="20">
-      <c r="A20" s="13" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="40.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="21">
-      <c r="A21" s="16" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="2" t="n">
         <f aca="false">minimumReduction-1</f>
         <v>4</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="2" t="n">
         <f aca="false">ROUND(A21*(100-B21)/100,2)</f>
         <v>9.6</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="22">
-      <c r="A22" s="16" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="2" t="n">
         <f aca="false">minimumReduction</f>
         <v>5</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="2" t="n">
         <f aca="false">ROUND(A22*(100-B22)/100,2)</f>
         <v>9.5</v>
       </c>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="23">
-      <c r="A23" s="16" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="2" t="n">
         <f aca="false">(minimumReduction+maximumReduction) / 2</f>
         <v>27.5</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="2" t="n">
         <f aca="false">ROUND(A23*(100-B23)/100,2)</f>
         <v>7.25</v>
       </c>
-      <c r="D23" s="22" t="n">
+      <c r="D23" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="24">
-      <c r="A24" s="16" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="16" t="n">
+      <c r="B24" s="2" t="n">
         <f aca="false">maximumReduction</f>
         <v>50</v>
       </c>
-      <c r="C24" s="16" t="n">
+      <c r="C24" s="2" t="n">
         <f aca="false">ROUND(A24*(100-B24)/100,2)</f>
         <v>5</v>
       </c>
-      <c r="D24" s="22" t="n">
+      <c r="D24" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="25">
-      <c r="A25" s="16" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="2" t="n">
         <f aca="false">maximumReduction+1</f>
         <v>51</v>
       </c>
-      <c r="C25" s="16" t="n">
+      <c r="C25" s="2" t="n">
         <f aca="false">ROUND(A25*(100-B25)/100,2)</f>
         <v>4.9</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="26">
-      <c r="A26" s="16" t="n">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="2" t="n">
         <f aca="false">ROUND(A26*(100-B26)/100,2)</f>
         <v>13</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="27">
-      <c r="A27" s="16" t="n">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B27" s="16" t="n">
+      <c r="B27" s="2" t="n">
         <f aca="false">minimumReduction-1</f>
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C27" s="2" t="n">
         <f aca="false">ROUND(A27*(100-B27)/100,2)</f>
         <v>191.04</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="28">
-      <c r="A28" s="16" t="n">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="2" t="n">
         <f aca="false">minimumReduction</f>
         <v>5</v>
       </c>
-      <c r="C28" s="16" t="n">
+      <c r="C28" s="2" t="n">
         <f aca="false">ROUND(A28*(100-B28)/100,2)</f>
         <v>189.05</v>
       </c>
-      <c r="D28" s="22" t="n">
+      <c r="D28" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="29">
-      <c r="A29" s="16" t="n">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="2" t="n">
         <f aca="false">(minimumReduction+maximumReduction) / 2</f>
         <v>27.5</v>
       </c>
-      <c r="C29" s="16" t="n">
+      <c r="C29" s="2" t="n">
         <f aca="false">ROUND(A29*(100-B29)/100,2)</f>
         <v>144.28</v>
       </c>
-      <c r="D29" s="22" t="n">
+      <c r="D29" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="30">
-      <c r="A30" s="16" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B30" s="16" t="n">
+      <c r="B30" s="2" t="n">
         <f aca="false">maximumReduction</f>
         <v>50</v>
       </c>
-      <c r="C30" s="16" t="n">
+      <c r="C30" s="2" t="n">
         <f aca="false">ROUND(A30*(100-B30)/100,2)</f>
         <v>99.5</v>
       </c>
-      <c r="D30" s="22" t="n">
+      <c r="D30" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="31">
-      <c r="A31" s="16" t="n">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="2" t="n">
         <f aca="false">maximumReduction+1</f>
         <v>51</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="2" t="n">
         <f aca="false">ROUND(A31*(100-B31)/100,2)</f>
         <v>97.51</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="32">
-      <c r="A32" s="16" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="2" t="n">
         <v>-30</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="2" t="n">
         <f aca="false">ROUND(A32*(100-B32)/100,2)</f>
         <v>258.7</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="50" outlineLevel="0" r="33">
-      <c r="A33" s="16" t="n">
+    <row r="33" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="B33" s="16" t="n">
+      <c r="B33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="2" t="n">
         <f aca="false">ROUND(A33*(100-B33)/100,2)</f>
         <v>0.05</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="34">
-      <c r="A34" s="16" t="n">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="B34" s="16" t="n">
+      <c r="B34" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="2" t="n">
         <f aca="false">ROUND(A34*(100-B34)/100,2)</f>
         <v>0.04</v>
       </c>
-      <c r="D34" s="22" t="n">
+      <c r="D34" s="15" t="n">
         <f aca="false">reductionDate</f>
         <v>41275</v>
       </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="35">
-      <c r="A35" s="16" t="n">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="B35" s="16" t="n">
+      <c r="B35" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="2" t="n">
         <f aca="false">ROUND(A35*(100-B35)/100,2)</f>
         <v>0.03</v>
       </c>
-      <c r="D35" s="22" t="n">
+      <c r="D35" s="15" t="n">
         <f aca="false">IF(B35&lt;maximumReduction,reductionDate,"None")</f>
         <v>41275</v>
       </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="36">
-      <c r="A36" s="16" t="n">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="C36" s="16" t="n">
+      <c r="C36" s="2" t="n">
         <f aca="false">ROUND(A36*(100-B36)/100,2)</f>
         <v>0.02</v>
       </c>
-      <c r="D36" s="22" t="n">
+      <c r="D36" s="15" t="n">
         <f aca="false">IF(B36&lt;maximumReduction,reductionDate,"None")</f>
         <v>0</v>
       </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="37">
-      <c r="A37" s="16" t="n">
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="B37" s="16" t="n">
+      <c r="B37" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C37" s="16" t="n">
+      <c r="C37" s="2" t="n">
         <f aca="false">ROUND(A37*(100-B37)/100,2)</f>
         <v>0.01</v>
       </c>
-      <c r="D37" s="22" t="n">
+      <c r="D37" s="15" t="n">
         <f aca="false">IF(B37&lt;maximumReduction,reductionDate,"None")</f>
         <v>0</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1147,7 +1106,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1160,10 +1119,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -1172,136 +1131,137 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.05" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="46.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.4" outlineLevel="0" r="3">
-      <c r="A3" s="11" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.65" outlineLevel="0" r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="34.85" outlineLevel="0" r="5">
-      <c r="A5" s="16" t="s">
+    <row r="5" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="15" t="n">
         <v>41699</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="15" t="n">
         <v>41729</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="2" t="n">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="43.4" outlineLevel="0" r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" customFormat="false" ht="43.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="8">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.65" outlineLevel="0" r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="10">
-      <c r="A10" s="16" t="s">
+    <row r="10" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="15" t="n">
         <v>41685</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="11">
-      <c r="A11" s="16" t="s">
+    <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="15" t="n">
         <v>41698</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="12">
-      <c r="A12" s="16" t="s">
+    <row r="12" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="15" t="n">
         <v>41699</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="2" t="n">
         <f aca="false">maxReductionOffer</f>
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="13">
-      <c r="A13" s="16" t="s">
+    <row r="13" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="15" t="n">
         <v>41729</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="2" t="n">
         <f aca="false">maxReductionOffer</f>
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.6" outlineLevel="0" r="14">
-      <c r="A14" s="16" t="s">
+    <row r="14" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="15" t="n">
         <v>41730</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="2" t="n">
         <v>50</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -1310,7 +1270,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
